--- a/src/app/app-pl/test/TestCase.xlsx
+++ b/src/app/app-pl/test/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-pl/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FC0974-03CA-E44A-9C7A-5F39DF44FFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13C815-DCAC-1440-8D2D-422BB729CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>type</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>settled</t>
+  </si>
+  <si>
+    <t>book price</t>
   </si>
 </sst>
 </file>
@@ -451,25 +454,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B4DCDE-4CB1-C44F-BA69-12FC166E2826}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -489,22 +493,25 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45658</v>
       </c>
@@ -525,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45662</v>
       </c>
@@ -537,25 +544,29 @@
         <v>100</v>
       </c>
       <c r="H4">
+        <f>D3</f>
+        <v>10</v>
+      </c>
+      <c r="I4">
         <f>SUM(E3:E4)</f>
         <v>1000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>13</v>
       </c>
-      <c r="J4">
-        <f>G4*I4</f>
+      <c r="K4">
+        <f>G4*J4</f>
         <v>1300</v>
       </c>
-      <c r="K4">
-        <f>J4-H4</f>
+      <c r="L4">
+        <f>K4-I4</f>
         <v>300</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45689</v>
       </c>
@@ -575,26 +586,26 @@
       <c r="G5">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>SUM(E3:E4)</f>
         <v>1000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="J5">
-        <f>I5*G5</f>
+      <c r="K5">
+        <f>J5*G5</f>
         <v>1200</v>
       </c>
-      <c r="K5">
-        <f>J5-H5</f>
+      <c r="L5">
+        <f>K5-I5</f>
         <v>200</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45693</v>
       </c>
@@ -604,26 +615,26 @@
       <c r="G6">
         <v>150</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>SUM(E3:E5)</f>
         <v>1650</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14</v>
       </c>
-      <c r="J6">
-        <f>I6*G6</f>
+      <c r="K6">
+        <f>J6*G6</f>
         <v>2100</v>
       </c>
-      <c r="K6">
-        <f>J6-H6</f>
+      <c r="L6">
+        <f>K6-I6</f>
         <v>450</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45717</v>
       </c>
@@ -643,26 +654,26 @@
       <c r="G7">
         <v>150</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>SUM(E3:E6)</f>
         <v>1650</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>14</v>
       </c>
-      <c r="J7">
-        <f>I7*G7</f>
+      <c r="K7">
+        <f>J7*G7</f>
         <v>2100</v>
       </c>
-      <c r="K7">
-        <f>J7-H7</f>
+      <c r="L7">
+        <f>K7-I7</f>
         <v>450</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45721</v>
       </c>
@@ -673,27 +684,27 @@
         <f>SUM(C3:C8)</f>
         <v>70</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>SUM(E3:E7)</f>
         <v>850</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>17</v>
       </c>
-      <c r="J8">
-        <f>I8*G8</f>
+      <c r="K8">
+        <f>J8*G8</f>
         <v>1190</v>
       </c>
-      <c r="K8">
-        <f>J8-H8</f>
+      <c r="L8">
+        <f>K8-I8</f>
         <v>340</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>(D7-D3)*(C3+C7)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45748</v>
       </c>
@@ -714,27 +725,27 @@
         <f>G8</f>
         <v>70</v>
       </c>
-      <c r="H9">
-        <f>H8</f>
+      <c r="I9">
+        <f>I8</f>
         <v>850</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>16</v>
       </c>
-      <c r="J9">
-        <f>I9*G9</f>
+      <c r="K9">
+        <f>J9*G9</f>
         <v>1120</v>
       </c>
-      <c r="K9">
-        <f>J9-H9</f>
+      <c r="L9">
+        <f>K9-I9</f>
         <v>270</v>
       </c>
-      <c r="L9">
-        <f>L8</f>
+      <c r="M9">
+        <f>M8</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45752</v>
       </c>
@@ -745,27 +756,27 @@
         <f>SUM(C3:C9)</f>
         <v>120</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>SUM(E3:E9)</f>
         <v>1650</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13</v>
       </c>
-      <c r="J10">
-        <f>I10*G10</f>
+      <c r="K10">
+        <f>J10*G10</f>
         <v>1560</v>
       </c>
-      <c r="K10">
-        <f>J10-H10</f>
+      <c r="L10">
+        <f>K10-I10</f>
         <v>-90</v>
       </c>
-      <c r="L10">
-        <f>L9</f>
+      <c r="M10">
+        <f>M9</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45778</v>
       </c>
@@ -786,27 +797,27 @@
         <f>G10</f>
         <v>120</v>
       </c>
-      <c r="H11">
-        <f>H10</f>
+      <c r="I11">
+        <f>I10</f>
         <v>1650</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>11</v>
       </c>
-      <c r="J11">
-        <f>I11*G11</f>
+      <c r="K11">
+        <f>J11*G11</f>
         <v>1320</v>
       </c>
-      <c r="K11">
-        <f>J11-H11</f>
+      <c r="L11">
+        <f>K11-I11</f>
         <v>-330</v>
       </c>
-      <c r="L11">
-        <f>L10</f>
+      <c r="M11">
+        <f>M10</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45782</v>
       </c>
@@ -817,22 +828,22 @@
         <f>SUM(C3:C11)</f>
         <v>80</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f>SUM(E3:E11)</f>
         <v>1190</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>9</v>
       </c>
-      <c r="J12">
-        <f>I12*G12</f>
+      <c r="K12">
+        <f>J12*G12</f>
         <v>720</v>
       </c>
-      <c r="K12">
-        <f>J12-H12</f>
+      <c r="L12">
+        <f>K12-I12</f>
         <v>-470</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f>(D11*C11*-1)+E11</f>
         <v>-20</v>
       </c>

--- a/src/app/app-pl/test/TestCase.xlsx
+++ b/src/app/app-pl/test/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-pl/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13C815-DCAC-1440-8D2D-422BB729CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EFA675-8923-BA4C-BF3D-B571109E3D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>type</t>
   </si>
@@ -79,7 +79,13 @@
     <t>settled</t>
   </si>
   <si>
-    <t>book price</t>
+    <t>case 1</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>case 3</t>
   </si>
 </sst>
 </file>
@@ -457,21 +463,20 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -493,21 +498,18 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
       <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -544,26 +546,25 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <f>D3</f>
-        <v>10</v>
-      </c>
-      <c r="I4">
         <f>SUM(E3:E4)</f>
         <v>1000</v>
       </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
       <c r="J4">
-        <v>13</v>
+        <f>G4*I4</f>
+        <v>1300</v>
       </c>
       <c r="K4">
-        <f>G4*J4</f>
-        <v>1300</v>
+        <f>J4-H4</f>
+        <v>300</v>
       </c>
       <c r="L4">
-        <f>K4-I4</f>
-        <v>300</v>
-      </c>
-      <c r="M4">
         <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -586,22 +587,22 @@
       <c r="G5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <f>SUM(E3:E4)</f>
         <v>1000</v>
       </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
       <c r="J5">
-        <v>12</v>
+        <f>I5*G5</f>
+        <v>1200</v>
       </c>
       <c r="K5">
-        <f>J5*G5</f>
-        <v>1200</v>
+        <f>J5-H5</f>
+        <v>200</v>
       </c>
       <c r="L5">
-        <f>K5-I5</f>
-        <v>200</v>
-      </c>
-      <c r="M5">
         <v>0</v>
       </c>
     </row>
@@ -615,23 +616,26 @@
       <c r="G6">
         <v>150</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <f>SUM(E3:E5)</f>
         <v>1650</v>
       </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
       <c r="J6">
-        <v>14</v>
+        <f>I6*G6</f>
+        <v>2100</v>
       </c>
       <c r="K6">
-        <f>J6*G6</f>
-        <v>2100</v>
+        <f>J6-H6</f>
+        <v>450</v>
       </c>
       <c r="L6">
-        <f>K6-I6</f>
-        <v>450</v>
-      </c>
-      <c r="M6">
         <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -654,22 +658,22 @@
       <c r="G7">
         <v>150</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <f>SUM(E3:E6)</f>
         <v>1650</v>
       </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
       <c r="J7">
-        <v>14</v>
+        <f>I7*G7</f>
+        <v>2100</v>
       </c>
       <c r="K7">
-        <f>J7*G7</f>
-        <v>2100</v>
+        <f>J7-H7</f>
+        <v>450</v>
       </c>
       <c r="L7">
-        <f>K7-I7</f>
-        <v>450</v>
-      </c>
-      <c r="M7">
         <v>0</v>
       </c>
     </row>
@@ -684,24 +688,27 @@
         <f>SUM(C3:C8)</f>
         <v>70</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <f>SUM(E3:E7)</f>
         <v>850</v>
       </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
       <c r="J8">
-        <v>17</v>
+        <f>I8*G8</f>
+        <v>1190</v>
       </c>
       <c r="K8">
-        <f>J8*G8</f>
-        <v>1190</v>
+        <f>J8-H8</f>
+        <v>340</v>
       </c>
       <c r="L8">
-        <f>K8-I8</f>
-        <v>340</v>
-      </c>
-      <c r="M8">
         <f>(D7-D3)*(C3+C7)</f>
         <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -725,23 +732,23 @@
         <f>G8</f>
         <v>70</v>
       </c>
+      <c r="H9">
+        <f>H8</f>
+        <v>850</v>
+      </c>
       <c r="I9">
-        <f>I8</f>
-        <v>850</v>
+        <v>16</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <f>I9*G9</f>
+        <v>1120</v>
       </c>
       <c r="K9">
-        <f>J9*G9</f>
-        <v>1120</v>
+        <f>J9-H9</f>
+        <v>270</v>
       </c>
       <c r="L9">
-        <f>K9-I9</f>
-        <v>270</v>
-      </c>
-      <c r="M9">
-        <f>M8</f>
+        <f>L8</f>
         <v>100</v>
       </c>
     </row>
@@ -756,23 +763,23 @@
         <f>SUM(C3:C9)</f>
         <v>120</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <f>SUM(E3:E9)</f>
         <v>1650</v>
       </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
       <c r="J10">
-        <v>13</v>
+        <f>I10*G10</f>
+        <v>1560</v>
       </c>
       <c r="K10">
-        <f>J10*G10</f>
-        <v>1560</v>
+        <f>J10-H10</f>
+        <v>-90</v>
       </c>
       <c r="L10">
-        <f>K10-I10</f>
-        <v>-90</v>
-      </c>
-      <c r="M10">
-        <f>M9</f>
+        <f>L9</f>
         <v>100</v>
       </c>
     </row>
@@ -797,23 +804,23 @@
         <f>G10</f>
         <v>120</v>
       </c>
+      <c r="H11">
+        <f>H10</f>
+        <v>1650</v>
+      </c>
       <c r="I11">
-        <f>I10</f>
-        <v>1650</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <f>I11*G11</f>
+        <v>1320</v>
       </c>
       <c r="K11">
-        <f>J11*G11</f>
-        <v>1320</v>
+        <f>J11-H11</f>
+        <v>-330</v>
       </c>
       <c r="L11">
-        <f>K11-I11</f>
-        <v>-330</v>
-      </c>
-      <c r="M11">
-        <f>M10</f>
+        <f>L10</f>
         <v>100</v>
       </c>
     </row>
@@ -828,22 +835,22 @@
         <f>SUM(C3:C11)</f>
         <v>80</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <f>SUM(E3:E11)</f>
         <v>1190</v>
       </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
       <c r="J12">
-        <v>9</v>
+        <f>I12*G12</f>
+        <v>720</v>
       </c>
       <c r="K12">
-        <f>J12*G12</f>
-        <v>720</v>
+        <f>J12-H12</f>
+        <v>-470</v>
       </c>
       <c r="L12">
-        <f>K12-I12</f>
-        <v>-470</v>
-      </c>
-      <c r="M12">
         <f>(D11*C11*-1)+E11</f>
         <v>-20</v>
       </c>

--- a/src/app/app-pl/test/TestCase.xlsx
+++ b/src/app/app-pl/test/TestCase.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-pl/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EFA675-8923-BA4C-BF3D-B571109E3D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EA0F0-777A-904A-84C6-1054F18D91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
   </bookViews>
   <sheets>
     <sheet name="FIFO" sheetId="1" r:id="rId1"/>
+    <sheet name="case2" sheetId="3" r:id="rId2"/>
+    <sheet name="case4" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>type</t>
   </si>
@@ -86,6 +88,18 @@
   </si>
   <si>
     <t>case 3</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -462,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B4DCDE-4CB1-C44F-BA69-12FC166E2826}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,4 +872,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E816A375-4868-BC47-B7C0-342C0643E322}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D63CFC-6041-F544-82FB-7C1C5C5831AB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/app/app-pl/test/TestCase.xlsx
+++ b/src/app/app-pl/test/TestCase.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-pl/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EA0F0-777A-904A-84C6-1054F18D91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BA3D7-13FA-5947-95AA-DEC7BD8DD866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
+    <workbookView xWindow="32580" yWindow="-2580" windowWidth="27640" windowHeight="17500" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
   </bookViews>
   <sheets>
     <sheet name="FIFO" sheetId="1" r:id="rId1"/>
-    <sheet name="case2" sheetId="3" r:id="rId2"/>
-    <sheet name="case4" sheetId="2" r:id="rId3"/>
+    <sheet name="Avg" sheetId="4" r:id="rId2"/>
+    <sheet name="case2" sheetId="3" r:id="rId3"/>
+    <sheet name="case4" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>type</t>
   </si>
@@ -100,6 +101,15 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>book price / unit</t>
+  </si>
+  <si>
+    <t>case 4</t>
   </si>
 </sst>
 </file>
@@ -125,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -160,6 +176,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B4DCDE-4CB1-C44F-BA69-12FC166E2826}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,6 +680,427 @@
         <v>2</v>
       </c>
       <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f>C7*D3</f>
+        <v>800</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <f>SUM(E3:E6)</f>
+        <v>1650</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <f>I7*G7</f>
+        <v>2250</v>
+      </c>
+      <c r="K7">
+        <f>J7-H7</f>
+        <v>600</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45721</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5">
+        <f>G7-C7</f>
+        <v>70</v>
+      </c>
+      <c r="H8" s="5">
+        <f>(C3-C7)*D3+E5</f>
+        <v>850</v>
+      </c>
+      <c r="I8" s="5">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5">
+        <f>I8*G8</f>
+        <v>1190</v>
+      </c>
+      <c r="K8" s="5">
+        <f>J8-H8</f>
+        <v>340</v>
+      </c>
+      <c r="L8" s="5">
+        <f>(15 - 10) * 80</f>
+        <v>400</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f>C9*D9</f>
+        <v>800</v>
+      </c>
+      <c r="G9">
+        <f>G8</f>
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <f>H8</f>
+        <v>850</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <f>I9*G9</f>
+        <v>1120</v>
+      </c>
+      <c r="K9">
+        <f>J9-H9</f>
+        <v>270</v>
+      </c>
+      <c r="L9">
+        <f>L8</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45752</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <f>G9+C9</f>
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <f>H9+E9</f>
+        <v>1650</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <f>I10*G10</f>
+        <v>1560</v>
+      </c>
+      <c r="K10">
+        <f>J10-H10</f>
+        <v>-90</v>
+      </c>
+      <c r="L10">
+        <f>L9</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v>440</v>
+      </c>
+      <c r="G11">
+        <f>G10</f>
+        <v>120</v>
+      </c>
+      <c r="H11">
+        <f>H10</f>
+        <v>1650</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <f>I11*G11</f>
+        <v>1320</v>
+      </c>
+      <c r="K11">
+        <f>J11-H11</f>
+        <v>-330</v>
+      </c>
+      <c r="L11">
+        <f>L10</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <f>G11-C11</f>
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <f>H11-(10*20)-(13*20)</f>
+        <v>1190</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f>I12*G12</f>
+        <v>720</v>
+      </c>
+      <c r="K12">
+        <f>J12-H12</f>
+        <v>-470</v>
+      </c>
+      <c r="L12">
+        <f>L11+(20*(11-10))+(20*(11-13))</f>
+        <v>380</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0FF9D9-34E1-3940-833F-E0E2C93F87D1}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45662</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <f>C3</f>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f>SUM(E3:E4)</f>
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <f>H4/G4</f>
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <f>G4*J4</f>
+        <v>1300</v>
+      </c>
+      <c r="L4">
+        <f>K4-H4</f>
+        <v>300</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f>C5*D5</f>
+        <v>650</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <f>SUM(E3:E4)</f>
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <f>H5/G5</f>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f>J5*G5</f>
+        <v>1200</v>
+      </c>
+      <c r="L5">
+        <f>K5-H5</f>
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45693</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+      <c r="H6">
+        <f>SUM(E3:E5)</f>
+        <v>1650</v>
+      </c>
+      <c r="I6">
+        <f>H6/G6</f>
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <f>J6*G6</f>
+        <v>2100</v>
+      </c>
+      <c r="L6">
+        <f>K6-H6</f>
+        <v>450</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>-80</v>
       </c>
       <c r="D7">
@@ -677,55 +1118,63 @@
         <v>1650</v>
       </c>
       <c r="I7">
+        <f>H7/G7</f>
+        <v>11</v>
+      </c>
+      <c r="J7">
         <v>14</v>
       </c>
-      <c r="J7">
-        <f>I7*G7</f>
+      <c r="K7">
+        <f>J7*G7</f>
         <v>2100</v>
       </c>
-      <c r="K7">
-        <f>J7-H7</f>
+      <c r="L7">
+        <f>K7-H7</f>
         <v>450</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>45721</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5">
         <f>SUM(C3:C8)</f>
         <v>70</v>
       </c>
-      <c r="H8">
-        <f>SUM(E3:E7)</f>
-        <v>850</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="5">
+        <f>I7*G8</f>
+        <v>770</v>
+      </c>
+      <c r="I8" s="5">
+        <f>H8/G8</f>
+        <v>11</v>
+      </c>
+      <c r="J8" s="5">
         <v>17</v>
       </c>
-      <c r="J8">
-        <f>I8*G8</f>
+      <c r="K8" s="5">
+        <f>J8*G8</f>
         <v>1190</v>
       </c>
-      <c r="K8">
-        <f>J8-H8</f>
-        <v>340</v>
-      </c>
-      <c r="L8">
-        <f>(D7-D3)*(C3+C7)</f>
-        <v>100</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" s="5">
+        <f>K8-H8</f>
+        <v>420</v>
+      </c>
+      <c r="M8" s="5">
+        <f>(J8-I8)*C7*-1</f>
+        <v>480</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45748</v>
       </c>
@@ -748,25 +1197,29 @@
       </c>
       <c r="H9">
         <f>H8</f>
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="I9">
+        <f>I8</f>
+        <v>11</v>
+      </c>
+      <c r="J9">
         <v>16</v>
       </c>
-      <c r="J9">
-        <f>I9*G9</f>
+      <c r="K9">
+        <f>J9*G9</f>
         <v>1120</v>
       </c>
-      <c r="K9">
-        <f>J9-H9</f>
-        <v>270</v>
-      </c>
       <c r="L9">
-        <f>L8</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <f>K9-H9</f>
+        <v>350</v>
+      </c>
+      <c r="M9">
+        <f>M8</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45752</v>
       </c>
@@ -778,26 +1231,30 @@
         <v>120</v>
       </c>
       <c r="H10">
-        <f>SUM(E3:E9)</f>
-        <v>1650</v>
+        <f>H9+E9</f>
+        <v>1570</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <f>H10/G10</f>
+        <v>13.083333333333334</v>
       </c>
       <c r="J10">
-        <f>I10*G10</f>
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <f>J10*G10</f>
         <v>1560</v>
       </c>
-      <c r="K10">
-        <f>J10-H10</f>
-        <v>-90</v>
-      </c>
       <c r="L10">
-        <f>L9</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <f>K10-H10</f>
+        <v>-10</v>
+      </c>
+      <c r="M10">
+        <f>M9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45778</v>
       </c>
@@ -820,25 +1277,29 @@
       </c>
       <c r="H11">
         <f>H10</f>
-        <v>1650</v>
+        <v>1570</v>
       </c>
       <c r="I11">
+        <f>I10</f>
+        <v>13.083333333333334</v>
+      </c>
+      <c r="J11">
         <v>11</v>
       </c>
-      <c r="J11">
-        <f>I11*G11</f>
+      <c r="K11">
+        <f>J11*G11</f>
         <v>1320</v>
       </c>
-      <c r="K11">
-        <f>J11-H11</f>
-        <v>-330</v>
-      </c>
       <c r="L11">
-        <f>L10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <f>K11-H11</f>
+        <v>-250</v>
+      </c>
+      <c r="M11">
+        <f>M10</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45782</v>
       </c>
@@ -850,21 +1311,25 @@
         <v>80</v>
       </c>
       <c r="H12">
-        <f>SUM(E3:E11)</f>
-        <v>1190</v>
+        <f>I11*G12</f>
+        <v>1046.6666666666667</v>
       </c>
       <c r="I12">
+        <f>I11</f>
+        <v>13.083333333333334</v>
+      </c>
+      <c r="J12">
         <v>9</v>
       </c>
-      <c r="J12">
-        <f>I12*G12</f>
+      <c r="K12">
+        <f>J12*G12</f>
         <v>720</v>
       </c>
-      <c r="K12">
-        <f>J12-H12</f>
-        <v>-470</v>
-      </c>
       <c r="L12">
+        <f>K12-H12</f>
+        <v>-326.66666666666674</v>
+      </c>
+      <c r="M12">
         <f>(D11*C11*-1)+E11</f>
         <v>-20</v>
       </c>
@@ -874,11 +1339,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E816A375-4868-BC47-B7C0-342C0643E322}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +1396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D63CFC-6041-F544-82FB-7C1C5C5831AB}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/src/app/app-pl/test/TestCase.xlsx
+++ b/src/app/app-pl/test/TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-pl/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BA3D7-13FA-5947-95AA-DEC7BD8DD866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931845C7-8CBC-6C41-9FDB-6737F8E16071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="-2580" windowWidth="27640" windowHeight="17500" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{5EC04115-4F26-5F43-A035-0399DF9533CE}"/>
   </bookViews>
   <sheets>
     <sheet name="FIFO" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
